--- a/Main Website/media/COMBINED SALARY OF L_T AND IDFC TW/PER PAID CASE(PIVOT) L&T.xlsx
+++ b/Main Website/media/COMBINED SALARY OF L_T AND IDFC TW/PER PAID CASE(PIVOT) L&T.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,41 @@
           <t>PER PAID CASE</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>EMPLOYEE_ID</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>MANAGER_ID</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>DESIGNATION</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EMPLOYEE_STATUS</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>PROCESS</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>DEPARTMENT</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -458,11 +493,46 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>AMIT KUMAR</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>P170</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>P226</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -473,11 +543,46 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AMIT KUMAR</t>
+          <t>ANIKET</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>3500</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>P269</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>P162</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>HL</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -488,11 +593,46 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ANIKET</t>
+          <t>BRAJESH KUMAR MISHRA</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3500</v>
+        <v>1600</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>P124</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -503,11 +643,46 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BRAJESH KUMAR MISHRA</t>
+          <t>GARIB NATH SHARMA</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1600</v>
+        <v>100</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>P271</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>O239</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>FULLERTON</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>RECOVERY</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -518,12 +693,47 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GARIB NATH SHARMA</t>
+          <t>GIRJESH KUMAR</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>100</v>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>P112</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>P162</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>HL</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -533,12 +743,47 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GIRJESH KUMAR</t>
+          <t>INDERJEET SINGH</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>100</v>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>P020</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>P162</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>HL</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -548,11 +793,46 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>INDERJEET SINGH</t>
+          <t>MANOJ TOMAR</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>100</v>
+        <v>2975</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>P117</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>HL</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -563,11 +843,46 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MANOJ TOMAR</t>
+          <t>NITIN KUMAR KHARE</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2975</v>
+        <v>7000</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>P241</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -578,11 +893,46 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NITIN KUMAR KHARE</t>
+          <t>PRAMOD KUMAR DHOUNDIYAL</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7000</v>
+        <v>100</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>P264</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>P162</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>HL</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -593,11 +943,46 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PRAMOD KUMAR DHOUNDIYAL</t>
+          <t>SHARWAN</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>100</v>
+        <v>4000</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>P119</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>P162</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>HL</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -608,11 +993,46 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SHARWAN</t>
+          <t>SOURAV KUMAR</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4000</v>
+        <v>3950</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>P261</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>P162</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>HL</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -623,11 +1043,46 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SOURAV KUMAR</t>
+          <t>SUDHAKAR</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3950</v>
+        <v>3900</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>P126</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>HL</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -638,11 +1093,46 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SUDHAKAR</t>
+          <t>SUKHVINDER SINGH</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3900</v>
+        <v>100</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>P168</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>P162</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>HL</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -653,26 +1143,46 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SUKHVINDER SINGH</t>
+          <t>VIJAY KUMAR</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>L&amp;T</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>VIJAY KUMAR</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
         <v>0</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>P270</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>P162</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>HL</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Main Website/media/COMBINED SALARY OF L_T AND IDFC TW/PER PAID CASE(PIVOT) L&T.xlsx
+++ b/Main Website/media/COMBINED SALARY OF L_T AND IDFC TW/PER PAID CASE(PIVOT) L&T.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,35 +451,40 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>EMPLOYEE_ID</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>MANAGER_ID</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>DESIGNATION</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>STAFF</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>EMPLOYEE_STATUS</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>PROCESS</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>DEPARTMENT</t>
         </is>
@@ -499,37 +504,38 @@
       <c r="C2" t="n">
         <v>100</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>P170</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>P226</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>IDFC</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
+        <is>
+          <t>MUTHOOT</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>TW</t>
         </is>
@@ -549,37 +555,38 @@
       <c r="C3" t="n">
         <v>3500</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>P269</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O50</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>IDFC</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -599,37 +606,38 @@
       <c r="C4" t="n">
         <v>1600</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>P124</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O72</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>IDFC</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
+        <is>
+          <t>L&amp;T</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>TW</t>
         </is>
@@ -649,39 +657,40 @@
       <c r="C5" t="n">
         <v>100</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>P271</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>O239</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>FULLERTON</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>RECOVERY</t>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>TW</t>
         </is>
       </c>
     </row>
@@ -699,39 +708,40 @@
       <c r="C6" t="n">
         <v>100</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>P112</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>IDFC</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>HL</t>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>TW</t>
         </is>
       </c>
     </row>
@@ -749,37 +759,38 @@
       <c r="C7" t="n">
         <v>100</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>P020</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O50</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>IDFC</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -799,37 +810,38 @@
       <c r="C8" t="n">
         <v>2975</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>P117</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O50</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>IDFC</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -849,37 +861,38 @@
       <c r="C9" t="n">
         <v>7000</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>P241</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O72</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>IDFC</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
+        <is>
+          <t>MUTHOOT</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>TW</t>
         </is>
@@ -899,37 +912,38 @@
       <c r="C10" t="n">
         <v>100</v>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>P264</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O72</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>IDFC</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -949,37 +963,38 @@
       <c r="C11" t="n">
         <v>4000</v>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>P119</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O72</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>IDFC</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -999,37 +1014,38 @@
       <c r="C12" t="n">
         <v>3950</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>P261</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O72</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>IDFC</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -1049,37 +1065,38 @@
       <c r="C13" t="n">
         <v>3900</v>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>P126</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O72</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>IDFC</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -1099,37 +1116,38 @@
       <c r="C14" t="n">
         <v>100</v>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>P168</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O72</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>IDFC</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -1149,37 +1167,38 @@
       <c r="C15" t="n">
         <v>0</v>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>P270</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>O50</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>IDFC</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
